--- a/biology/Botanique/Clematis_patens_'Evipo039'/Clematis_patens_'Evipo039'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Evipo039'/Clematis_patens_'Evipo039'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo039%27</t>
+          <t>Clematis_patens_'Evipo039'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'Evipo039' PBR &amp; PPaf est un cultivar de clématite obtenu en 2007 par Raymond Evison en Angleterre. Elle porte le nom commercial de clématite patens Diamantina 'evipo039' PBR &amp; PPaf.
 Diamantina fut présentée au public au Chelsea Flower Show en 2010.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo039%27</t>
+          <t>Clematis_patens_'Evipo039'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feuilles
-La plupart des feuilles de Diamantina sont trifoliolées, mais parfois simples.
-Folioles
-Ils sont ovées, bilobées ou non lobées, lisses à faiblement rugueux, à sommet aigu chez certaines feuilles et acuminé chez les autres, à base arrondie chez certaines feuilles et cordée chez les autres, à marge entière, à sinus de profondeur moyenne entre les lobes; dessus vert moyen, non panaché.
-Fleurs
-Isolées, doubles, à orientation horizontale, à section transversale plate en vue latérale, ne dégageant aucun parfum ou très faiblement parfumées, formées sur le bois de l'année ou celui de l'année précédente.
-Sépales
-Tangents, elliptiques, convexes en coupe transversale, modérément réfléchis en coupe longitudinale, non tordus autour de l'axe longitudinal, à sommet aigu et mucroné, à marge faiblement ondulée. Dessus à l'ouverture violet, sépales internes au plein épanouissement violet-bleu, sépales externes au plein épanouissement violet-bleu lavé. Tons rouge-violet apparaissant avec le temps, couleur du dessus devenant plus claire vers la marge, dessous violet avec une barre centrale blanche.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des feuilles de Diamantina sont trifoliolées, mais parfois simples.
 </t>
         </is>
       </c>
@@ -533,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo039%27</t>
+          <t>Clematis_patens_'Evipo039'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Evipo039' est issue d'une mutation raméale naturelle découverte chez clématite patens 'Evipo038' en 2002, à Guernesey, dans les îles Anglo-Normandes. Le rameau mutant a été évalué dans des conditions contrôlées et multiplié par bouturage au cours de l'été 2002. L'objectif était de créer une variété distincte convenant à la culture commerciale en serre et en pépinière. La nouvelle variété a été sélectionnée pour ses nombreuses fleurs violet clair à centre bien différencié, sa longue période de floraison, la fiabilité de sa floraison et de sa multiplication par bouturage ainsi que son aptitude à la culture en pot en pépinière.
+          <t>Folioles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont ovées, bilobées ou non lobées, lisses à faiblement rugueux, à sommet aigu chez certaines feuilles et acuminé chez les autres, à base arrondie chez certaines feuilles et cordée chez les autres, à marge entière, à sinus de profondeur moyenne entre les lobes; dessus vert moyen, non panaché.
 </t>
         </is>
       </c>
@@ -564,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo039%27</t>
+          <t>Clematis_patens_'Evipo039'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Evipo039' PBR &amp; PPaf est protégé par l'Union international pour la protection des obtentions végétales sous licence PBR &amp; PPaf sous le numéro 11998596 du 29 novembre 2007. Diamantina est protégé par une licence trademark.
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isolées, doubles, à orientation horizontale, à section transversale plate en vue latérale, ne dégageant aucun parfum ou très faiblement parfumées, formées sur le bois de l'année ou celui de l'année précédente.
 </t>
         </is>
       </c>
@@ -595,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo039%27</t>
+          <t>Clematis_patens_'Evipo039'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,13 +633,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La clématite Diamantina est idéale pour une culture en pot, mais également en pleine terre.
-Cette clématite fleurit sur le bois de l'année en proposant parfois deux floraisons par an, une au printemps puis une à l'automne. Elle résiste à des températures inférieures à -20 °C.
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tangents, elliptiques, convexes en coupe transversale, modérément réfléchis en coupe longitudinale, non tordus autour de l'axe longitudinal, à sommet aigu et mucroné, à marge faiblement ondulée. Dessus à l'ouverture violet, sépales internes au plein épanouissement violet-bleu, sépales externes au plein épanouissement violet-bleu lavé. Tons rouge-violet apparaissant avec le temps, couleur du dessus devenant plus claire vers la marge, dessous violet avec une barre centrale blanche.
 </t>
         </is>
       </c>
@@ -627,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo039%27</t>
+          <t>Clematis_patens_'Evipo039'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,10 +670,112 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Evipo039' est issue d'une mutation raméale naturelle découverte chez clématite patens 'Evipo038' en 2002, à Guernesey, dans les îles Anglo-Normandes. Le rameau mutant a été évalué dans des conditions contrôlées et multiplié par bouturage au cours de l'été 2002. L'objectif était de créer une variété distincte convenant à la culture commerciale en serre et en pépinière. La nouvelle variété a été sélectionnée pour ses nombreuses fleurs violet clair à centre bien différencié, sa longue période de floraison, la fiabilité de sa floraison et de sa multiplication par bouturage ainsi que son aptitude à la culture en pot en pépinière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo039'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo039%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Evipo039' PBR &amp; PPaf est protégé par l'Union international pour la protection des obtentions végétales sous licence PBR &amp; PPaf sous le numéro 11998596 du 29 novembre 2007. Diamantina est protégé par une licence trademark.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo039'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo039%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Diamantina est idéale pour une culture en pot, mais également en pleine terre.
+Cette clématite fleurit sur le bois de l'année en proposant parfois deux floraisons par an, une au printemps puis une à l'automne. Elle résiste à des températures inférieures à -20 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo039'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo039%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Maladies et ravageurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite Diamantina est sensible à l'excès d'eau ce qui pourra provoquer une pourriture du collet de la plante et ainsi la mort de la clématite.
 </t>
